--- a/Dataset/3.1ER - 2019 Employment Projections by Industry.xlsx
+++ b/Dataset/3.1ER - 2019 Employment Projections by Industry.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9C9C5-09D2-4C47-95AB-879E4C8A61F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9D6B8-7B80-4D4B-9F96-D97E76F891C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26260" yWindow="3300" windowWidth="25600" windowHeight="14200" tabRatio="786" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,14 +1985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="21" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>86</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>85</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2041,22 +2041,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E902"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -2071,7 +2072,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" hidden="1" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="11"/>
       <c r="C2" s="9"/>
@@ -2082,7 +2083,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>0.92648490491779334</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>7.4933434257185558</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>1.170334641036703</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>1.7900237232838214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>6.9378432344806074</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>-3.4963073993280522</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>1.3397437866387354</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>12.304930521485399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>3.469274750480992</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>1.20669568889529</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>4.2353275712719157E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>-0.80303805135406092</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>11.043635733530275</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>4.3212610612783555</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>4.1452257342395997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>7.171433604546773</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>14.205968548930356</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>1.7891983943822163</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>9.6992973490412258</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>6.5985784886693875</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>0.65553109531998899</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>-7.192305520232142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>5.5340615739270795</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>6.1018880653029663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>6.0275292134658409</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>2.7517670620416532</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>1.3266930466489861</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>6.4323324311084837</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>-6.7736521225606042E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>8.8782483830645003</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>7.3802523640412554</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>5.321010051441978</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>9.8364633634462475</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>9.1868842666590265</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>7.5246008895573357</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>4.9588732790487864</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>19.579552246247275</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>16.849577113193178</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>4.4255675215907324</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>6.5108023814299392</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>-8.0700881543547869</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>3.9299250789307747</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>16.179184741137494</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>-6.6649521008749284</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>-1.283024912210976</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>6.4323324311085104</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>13.456930174337941</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>8.2282886115748042</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>-6.795036981365854</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>2.5204325287356952</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>9.7859709930859182</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>9.1868842666590087</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>4.7349617241375954</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>2.8778013976430681</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>10.752942106036683</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>5.4710490904849136</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>16.052426704183066</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>4.7783489294953618</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>-3.5583756556800092</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>-1.1315364961242393</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="2" t="s">
         <v>22</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>-0.82350437190068382</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>5.9015056481840205</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="2" t="s">
         <v>22</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>14.793571298015392</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>2.4791876856079118</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>-1.6960034321883224</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>1.1725025273076624</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="2" t="s">
         <v>22</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>8.8938658349277109</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>4.8486012109895862</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="2" t="s">
         <v>22</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>7.7412464861942238</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>15.528088204076578</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>13.764058141045549</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>10.417979028174162</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>14.92290120783294</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" s="2" t="s">
         <v>22</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>22.85584064663874</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>10.621298178253719</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="2" t="s">
         <v>22</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>15.065155436787316</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" s="2" t="s">
         <v>22</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>9.6968252152578014</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>-2.2079331255979784</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>-9.0040145815781152</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>-0.89330531893723686</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>2.8743120553012678</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>8.002333746760474</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>0.44135095538282865</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>4.4876244246472456</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>6.3848903531749084</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>0.48486947076947162</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>2.6285658465539044</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>3.7372850464230307</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>1.715007104378979</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>13.266275814434019</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" s="2" t="s">
         <v>23</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>11.089787892814165</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="2" t="s">
         <v>23</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>6.6310377469589277</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>13.700228897759665</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="2" t="s">
         <v>23</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>16.452493710149017</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>12.341609323077165</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>12.53620535976658</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>8.2038944387697352</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>-1.4369731181623717</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>-5.228464698717338</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>2.8573932079619024</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>-5.1663500051365681</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>6.3049310033994361</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>2.6484304477355964</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>0.54556455384779934</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>4.0950867533950435</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>7.7519011175269759</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>8.1600351896705057</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>-4.1503461169122691</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>1.2437296768603472</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>-1.2872634573457822</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>14.549145508899761</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>9.9949341625147134</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>4.6242659417590364</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>18.330164954370087</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>5.2304184174646418</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>10.266179807070692</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="2" t="s">
         <v>2</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>6.9145325156551127</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="2" t="s">
         <v>88</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>0.3515544802316265</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="2" t="s">
         <v>88</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>-2.8203635133999985</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="2" t="s">
         <v>88</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>0.88896940880512398</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="2" t="s">
         <v>88</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>5.2943034201796513</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="2" t="s">
         <v>88</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>4.7514045726291494</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="2" t="s">
         <v>88</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>1.9397514860926983</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" s="2" t="s">
         <v>88</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>-1.5101375472425671</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="2" t="s">
         <v>88</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>6.3880426884829697</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" s="2" t="s">
         <v>88</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>8.0021463798511512</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" s="2" t="s">
         <v>88</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>10.315007519870685</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="2" t="s">
         <v>88</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>4.2322935744151549</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="2" t="s">
         <v>88</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>2.5707846635050804</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="2" t="s">
         <v>88</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>4.6499935654878524</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="2" t="s">
         <v>88</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>13.4735572970618</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="2" t="s">
         <v>88</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>7.9603935668837815</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" s="2" t="s">
         <v>88</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>9.0932969608260414</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="2" t="s">
         <v>88</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>21.69289735758607</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" s="2" t="s">
         <v>88</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>3.2213638046199935</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" s="2" t="s">
         <v>88</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>15.615250409661725</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" s="2" t="s">
         <v>88</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>7.4356232216684246</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>-6.4859486991445241</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>-12.090438305942062</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>0.12520362465893436</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>12.783636024611496</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>-2.1082075072599458</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>6.4323324311084953</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>5.9407395615755645</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>6.819837431897799</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>5.0893676558107419</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>4.7847402641132559</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>12.617927936822698</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>9.1868842666590353</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>0.94664623441244966</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>14.372278350935918</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>17.236811241167892</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>5.4764935793444023</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>10.348981225399037</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>4.6260830524593644</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="2" t="s">
         <v>24</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>-6.2038357602712164</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="2" t="s">
         <v>24</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>-4.8398988511706849</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="2" t="s">
         <v>24</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>-3.8455578436326827</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="2" t="s">
         <v>24</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>0.46130989539325634</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="2" t="s">
         <v>24</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>11.743418437047321</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="2" t="s">
         <v>24</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>0.12015611519970598</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="2" t="s">
         <v>24</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>11.778339965383742</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="2" t="s">
         <v>24</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>16.453043338835506</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="2" t="s">
         <v>24</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>10.879421064122054</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="2" t="s">
         <v>24</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>-4.7196707225042145</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="2" t="s">
         <v>24</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>5.2104596634915197</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" s="2" t="s">
         <v>24</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>15.195292025975998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" s="2" t="s">
         <v>24</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>20.466877237047687</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" s="2" t="s">
         <v>24</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>7.6419798220758697</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" s="2" t="s">
         <v>24</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>8.3049849715231527</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" s="2" t="s">
         <v>24</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>14.946390948672953</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" s="2" t="s">
         <v>24</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>18.872804189493991</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" s="2" t="s">
         <v>24</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>11.108052429427936</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" s="2" t="s">
         <v>24</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>4.3638861876034367</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" s="2" t="s">
         <v>24</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>11.717394642116853</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" s="2" t="s">
         <v>25</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>-6.7375474847523371</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" s="2" t="s">
         <v>25</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>0.10892362809724294</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" s="2" t="s">
         <v>25</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>-3.9352985954468656</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" s="2" t="s">
         <v>25</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>3.7438673538401175</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="2" t="s">
         <v>25</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>13.232468177414312</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="2" t="s">
         <v>25</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>-1.024359076836012</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="2" t="s">
         <v>25</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>8.5413924964058872</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="2" t="s">
         <v>25</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>19.255921264856781</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="2" t="s">
         <v>25</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>10.585832514111317</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" s="2" t="s">
         <v>25</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>-0.60499226334232148</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="2" t="s">
         <v>25</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>10.118975727025969</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" s="2" t="s">
         <v>25</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>8.4839398476128451</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="2" t="s">
         <v>25</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>25.405080568283754</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="2" t="s">
         <v>25</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>7.9419535961607473</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" s="2" t="s">
         <v>25</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>9.3833917989882991</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" s="2" t="s">
         <v>25</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>17.90163263906863</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" s="2" t="s">
         <v>25</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>15.163540492236214</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" s="2" t="s">
         <v>25</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>10.123279743663977</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" s="2" t="s">
         <v>25</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>3.7684059599794351</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" s="2" t="s">
         <v>25</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>10.844741375967782</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" s="2" t="s">
         <v>26</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>-2.3755994525138773</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" s="2" t="s">
         <v>26</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>-8.1405920879987512</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" s="2" t="s">
         <v>26</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>-2.1586918014263867</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" s="2" t="s">
         <v>26</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>-3.9175323563216873</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" s="2" t="s">
         <v>26</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>8.6463100295207109</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" s="2" t="s">
         <v>26</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>4.3084147177823775</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="2" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>6.8656650109886463</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="2" t="s">
         <v>26</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>10.390139615125502</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="2" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>7.6514955501172581</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" s="2" t="s">
         <v>26</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>-3.1395705718714022</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="2" t="s">
         <v>26</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>0.15357546845346237</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="2" t="s">
         <v>26</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>10.349854958284062</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="2" t="s">
         <v>26</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>15.297725065386695</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="2" t="s">
         <v>26</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>7.8399798446580853</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" s="2" t="s">
         <v>26</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>7.9106906305591682</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" s="2" t="s">
         <v>26</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>12.542517879889219</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" s="2" t="s">
         <v>26</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>14.419281369610593</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" s="2" t="s">
         <v>26</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>15.481047794379935</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="2" t="s">
         <v>26</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>5.1865361816530804</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" s="2" t="s">
         <v>26</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>8.6179747457459843</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" s="2" t="s">
         <v>27</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>-11.468536274640957</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" s="2" t="s">
         <v>27</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>-0.72124970825392332</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" s="2" t="s">
         <v>27</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>-6.2033908652972718</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" s="2" t="s">
         <v>27</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>2.132618670891683</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" s="2" t="s">
         <v>27</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>13.496940388044019</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" s="2" t="s">
         <v>27</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>9.3877354727511673</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229" s="2" t="s">
         <v>27</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>7.0748072043805417</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230" s="2" t="s">
         <v>27</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>15.053647154957162</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" s="2" t="s">
         <v>27</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>3.7356746716552474</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" s="2" t="s">
         <v>27</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>-2.2629384545187254</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" s="2" t="s">
         <v>27</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>9.023497303006204</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234" s="2" t="s">
         <v>27</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>11.418436888762923</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" s="2" t="s">
         <v>27</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>15.015254670499626</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" s="2" t="s">
         <v>27</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>8.1874365020215798</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" s="2" t="s">
         <v>27</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>2.146468987108455</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" s="2" t="s">
         <v>27</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>16.449317010010439</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" s="2" t="s">
         <v>27</v>
       </c>
@@ -6111,7 +6112,7 @@
         <v>13.90255406334745</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" s="2" t="s">
         <v>27</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>13.959687513986689</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" s="2" t="s">
         <v>27</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>7.9618127508696857</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" s="2" t="s">
         <v>27</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>8.1090231753778284</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>4</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>-9.8326525431654321</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
         <v>4</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>0.77846402405916504</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
         <v>4</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>5.4740210598929009</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>4</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>5.4581717350535497</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
         <v>4</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>3.6421275029011833</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="2" t="s">
         <v>4</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>15.353492910798034</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
         <v>4</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>11.401561820881682</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
         <v>4</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>6.3881413889961447</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
         <v>4</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>-1.7530541774944317</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>3.1996871054567202</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>3.4856626626131102</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
         <v>4</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>2.6381226988756943</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>19.127787788147312</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>4</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>1.5557594037834697</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
         <v>4</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>6.1812785729347457</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
         <v>4</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>11.217891230676136</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
         <v>4</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>4.5382635597228642</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
         <v>4</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>2.4765709033852685</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
         <v>4</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>1.6732437302474348</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
         <v>4</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>6.044904753097005</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
         <v>28</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>-3.7929412803385647</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
         <v>28</v>
       </c>
@@ -6536,7 +6537,7 @@
         <v>1.2150692615468754</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
         <v>28</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>-6.4994036899951313</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
         <v>28</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>11.226249408199356</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
         <v>28</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>16.89809400815513</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>28</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>3.049301708871941</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>4.308287259575307</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
         <v>28</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>5.6566975479965604</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
         <v>28</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>-3.9730439922761507</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
         <v>28</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
         <v>28</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>0.9078725311408693</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
         <v>28</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>2.6884183531727182</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
         <v>28</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>18.024067252312133</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
         <v>28</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>1.2582008116562657</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
         <v>28</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>5.7655944917834194</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
         <v>28</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>13.652200753575435</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
         <v>28</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>19.825353782085458</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
         <v>28</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>1.3100338825750129</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
         <v>28</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>3.2865757653106247</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
         <v>28</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>8.4410354864416188</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
         <v>5</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>10.01580168466012</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
         <v>5</v>
       </c>
@@ -6876,7 +6877,7 @@
         <v>8.0520902611667786</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
         <v>5</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>0.15664488398200538</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
         <v>5</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>5.9879988997486011</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
         <v>5</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>15.354273589665922</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
         <v>5</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>4.8056088000617851</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
         <v>5</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>10.544128154247344</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
         <v>5</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>3.140143273545541</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
         <v>5</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>13.370262124153514</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
         <v>5</v>
       </c>
@@ -7012,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
         <v>5</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>12.01750483201398</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="2" t="s">
         <v>5</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>7.6233970214673192</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
         <v>5</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>10.1599989871726</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="2" t="s">
         <v>5</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>6.4209697568741868</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
         <v>5</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>12.896244016416283</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="2" t="s">
         <v>5</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>6.0488899023588045</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="2" t="s">
         <v>5</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>16.095325086276922</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
         <v>5</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>2.4765709033852747</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
         <v>5</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>2.389164403971852</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>9.7024872494991534</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
         <v>29</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>-4.7275332093663298</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
         <v>29</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>2.0403239282165395</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
         <v>29</v>
       </c>
@@ -7233,7 +7234,7 @@
         <v>4.907631799936623</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
         <v>29</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>17.89465810590433</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
         <v>29</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>7.4121507758289784</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
         <v>29</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>2.0805905143578087</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
         <v>29</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>2.6311915288216481</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
         <v>29</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>9.2514334357528814</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
         <v>29</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>-3.1820256129274243</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
         <v>29</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>2.6252151593134072</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
         <v>29</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>-3.3018630418279549</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>29</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>2.0479268151675294</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
         <v>29</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>6.0300740170730052</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
         <v>29</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>-7.5325177488826878</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
         <v>29</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>5.4200253177795901</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
         <v>29</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>10.790839461644982</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
         <v>29</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>16.451520729357121</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
         <v>29</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>7.7546936559387882</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
         <v>29</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>6.9001146601481951</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
         <v>29</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>6.0095139671621407</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
         <v>30</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>2.4237326700422179</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
         <v>30</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>-3.0489501400033552</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
         <v>30</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>5.5570812822109037</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
         <v>30</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>7.0872271266495073</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7608,7 @@
         <v>7.7671859563798327</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
         <v>30</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>6.6870575249804709</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
         <v>30</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>4.0942037819417507</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
         <v>30</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>9.869125973540271</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
         <v>30</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>-1.3600003281617179</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
         <v>30</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>13.287896583739689</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
         <v>30</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>7.9295114395767667</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
         <v>30</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>2.6896082644821742</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
         <v>30</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>-0.52853498921400366</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
         <v>30</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>-0.69945527582099298</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
         <v>30</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>0.4656510885828819</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
         <v>30</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>16.668829034045032</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
         <v>30</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>9.8829378027041326</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
         <v>30</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>-2.5790414931136141</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
         <v>30</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>0.54910084728950104</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
         <v>30</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>6.0532620345528674</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
         <v>31</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>5.9580264782307317</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
         <v>31</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>0.79724174390194902</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
         <v>31</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>-1.2676616200095641</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
         <v>31</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>2.6762628035509985</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
         <v>31</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>13.158973455285006</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
         <v>31</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>4.234850907290105</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
         <v>31</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>7.8985709621818962</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
         <v>31</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>8.5077388928239941</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
         <v>31</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>5.6099616756817667</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
         <v>31</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>1.7363138430515692</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
         <v>31</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>5.4937153496369202</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>31</v>
       </c>
@@ -8066,7 +8067,7 @@
         <v>12.897407850125425</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
         <v>31</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>24.074401312830808</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
         <v>31</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>15.619540210611829</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
         <v>31</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>5.8425978197532142</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
         <v>31</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>12.133344556957731</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
         <v>31</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>9.3699367936599298</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
         <v>31</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>16.238066729863398</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
         <v>31</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>5.6489264559687582</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
         <v>31</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>11.027962717198822</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
         <v>32</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>0.54313880819196336</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
         <v>32</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>-3.2910140865739996</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
         <v>32</v>
       </c>
@@ -8253,7 +8254,7 @@
         <v>0.55827614470192499</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
         <v>32</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>7.6199986682823493</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
         <v>32</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>13.339884075783626</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
         <v>32</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>2.9485183519141986</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
         <v>32</v>
       </c>
@@ -8321,7 +8322,7 @@
         <v>4.3343903018028591</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
         <v>32</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>3.763372433444597</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
         <v>32</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>3.5995096607971768</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
         <v>32</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>-1.2801161776008807</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
         <v>32</v>
       </c>
@@ -8389,7 +8390,7 @@
         <v>5.3137414010260144</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
         <v>32</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>9.7730849262874369</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
         <v>32</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>23.167997208718802</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
         <v>32</v>
       </c>
@@ -8440,7 +8441,7 @@
         <v>5.0708560228986572</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
         <v>32</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>4.2899213788551043</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
         <v>32</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>17.479239941641612</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
         <v>32</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>17.286335783525931</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
         <v>32</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>15.54552154795906</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
         <v>32</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>15.552975270622191</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
         <v>32</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>10.236520714829828</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
         <v>33</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>-5.1483749707131681</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
         <v>33</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>-1.6152297232724853</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
         <v>33</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>0.27192378036914877</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
         <v>33</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>3.8954026707306513</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
         <v>33</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>12.83500045496074</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
         <v>33</v>
       </c>
@@ -8644,7 +8645,7 @@
         <v>-5.2204966387212242</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
         <v>33</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>2.4277692347397846</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
         <v>33</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>4.5350520244260037</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
         <v>33</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>8.9776832975556946</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
         <v>33</v>
       </c>
@@ -8712,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
         <v>33</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>12.328615486859785</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
         <v>33</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>6.9909555780271786</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
         <v>33</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>20.496447820699444</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
         <v>33</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>14.844255993640154</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
         <v>33</v>
       </c>
@@ -8797,7 +8798,7 @@
         <v>12.222129097337021</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
         <v>33</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>11.853360982064414</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
         <v>33</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>29.154611174000888</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
         <v>33</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>20.8094066490562</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
         <v>33</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>9.8693164439132932</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
         <v>33</v>
       </c>
@@ -8882,7 +8883,7 @@
         <v>11.419741485688311</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
         <v>34</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>-6.5047874238671328</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
         <v>34</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
         <v>34</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>0.39596941785173445</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
         <v>34</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>6.627760053339971</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>9.0955223310097857</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
         <v>34</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>6.711312316834352</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
         <v>34</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>4.9871617120343732</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
         <v>34</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>3.9143879657662999</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
         <v>34</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>-0.57632430961248393</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
         <v>34</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>9.7726708330112242</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
         <v>34</v>
       </c>
@@ -9069,7 +9070,7 @@
         <v>2.0543693396461284</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
         <v>34</v>
       </c>
@@ -9086,7 +9087,7 @@
         <v>4.4234687416419911</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
         <v>34</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>17.488565797535944</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
         <v>34</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>-3.8578967823567694</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
         <v>34</v>
       </c>
@@ -9137,7 +9138,7 @@
         <v>-3.922873515199917</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
         <v>34</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>16.556651207279678</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
         <v>34</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>9.7121168620329055</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
         <v>34</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>2.4765709033852645</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
         <v>34</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>4.0428809050373955</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
         <v>34</v>
       </c>
@@ -9222,7 +9223,7 @@
         <v>2.8093133757661102</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
         <v>35</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>3.8372758269784355</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
         <v>35</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>-6.75976645215224</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
         <v>35</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>6.1817664620968417E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
         <v>35</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>6.340412416689734</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
         <v>35</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>16.039584091104029</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
         <v>35</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>8.6489309014357687</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="2" t="s">
         <v>35</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>7.5081965999578255</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
         <v>35</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>13.133939132755987</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
         <v>35</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>2.8967431621290611</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
         <v>35</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>-0.96217825314658167</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
         <v>35</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>4.5671050265339748</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="2" t="s">
         <v>35</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>12.579901318151812</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
         <v>35</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>18.613445500519148</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
         <v>35</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>14.791105665370194</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
         <v>35</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>7.3559919798862632</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
         <v>35</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>21.081884152179999</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
         <v>35</v>
       </c>
@@ -9511,7 +9512,7 @@
         <v>13.675340084303727</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
         <v>35</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>14.088168513405424</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
         <v>35</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>9.3120146703063185</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="2" t="s">
         <v>35</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>10.507582216698193</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
         <v>36</v>
       </c>
@@ -9579,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="2" t="s">
         <v>36</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>-1.6152297232724884</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
         <v>36</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>-0.14209065002001442</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
         <v>36</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>16.580757823835484</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
         <v>36</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>12.250915383175993</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="2" t="s">
         <v>36</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>-3.6485755562682374</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
         <v>36</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>15.566536555435462</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
         <v>36</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>14.256382795603958</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
         <v>36</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>20.228174080734636</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
         <v>36</v>
       </c>
@@ -9732,7 +9733,7 @@
         <v>-1.9453827942531594</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
         <v>36</v>
       </c>
@@ -9749,7 +9750,7 @@
         <v>13.363232939073514</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" s="2" t="s">
         <v>36</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>2.7160947521112075</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" s="2" t="s">
         <v>36</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>20.647754328120993</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
         <v>36</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>10.365581709068707</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" s="2" t="s">
         <v>36</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>19.712286184793847</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" s="2" t="s">
         <v>36</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>15.799999671571626</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
         <v>36</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>24.914764511011857</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" s="2" t="s">
         <v>36</v>
       </c>
@@ -9868,7 +9869,7 @@
         <v>23.622800080598541</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" s="2" t="s">
         <v>36</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>-0.59890800225189411</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
         <v>36</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>14.249616930300929</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" s="2" t="s">
         <v>37</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>-2.8613500323440242</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" s="2" t="s">
         <v>37</v>
       </c>
@@ -9936,7 +9937,7 @@
         <v>-6.5161992544124248</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
         <v>37</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>5.1870124230693442</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="2" t="s">
         <v>37</v>
       </c>
@@ -9970,7 +9971,7 @@
         <v>5.9879988997486056</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
         <v>37</v>
       </c>
@@ -9987,7 +9988,7 @@
         <v>6.6793719507524631</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
         <v>37</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>14.583804109484166</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="2" t="s">
         <v>37</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>-4.7136406377189557</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="2" t="s">
         <v>37</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>6.9953358261187555</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
         <v>37</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>8.2902917595834058</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="2" t="s">
         <v>37</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>-3.2338014911108446</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
         <v>37</v>
       </c>
@@ -10089,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
         <v>37</v>
       </c>
@@ -10106,7 +10107,7 @@
         <v>2.7283481997972423</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
         <v>37</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>10.26066321478789</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
         <v>37</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>-6.7112498491842256</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
         <v>37</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>4.025893103702133</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
         <v>37</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>8.1820879988967423</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
         <v>37</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>9.6263324804155648</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
         <v>37</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>2.4765709033852512</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="2" t="s">
         <v>37</v>
       </c>
@@ -10225,7 +10226,7 @@
         <v>-3.1979176211341804</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="2" t="s">
         <v>37</v>
       </c>
@@ -10242,7 +10243,7 @@
         <v>3.822745263470289</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1">
       <c r="A483" s="2" t="s">
         <v>38</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>-9.103600572715532</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" s="2" t="s">
         <v>38</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v>8.9270484324733523</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" s="2" t="s">
         <v>38</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>-0.49247070520042197</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1">
       <c r="A486" s="2" t="s">
         <v>38</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>1.6944788257286409</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1">
       <c r="A487" s="2" t="s">
         <v>38</v>
       </c>
@@ -10327,7 +10328,7 @@
         <v>11.642139218554915</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1">
       <c r="A488" s="2" t="s">
         <v>38</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>5.1365826178683598</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1">
       <c r="A489" s="2" t="s">
         <v>38</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>3.9780808211582244</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1">
       <c r="A490" s="2" t="s">
         <v>38</v>
       </c>
@@ -10378,7 +10379,7 @@
         <v>6.93590565984106</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1">
       <c r="A491" s="2" t="s">
         <v>38</v>
       </c>
@@ -10395,7 +10396,7 @@
         <v>1.0130827805101796</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1">
       <c r="A492" s="2" t="s">
         <v>38</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>4.3158271507959878</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1">
       <c r="A493" s="2" t="s">
         <v>38</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>3.1971081656878035</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" s="2" t="s">
         <v>38</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>-2.0410062492717094</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1">
       <c r="A495" s="2" t="s">
         <v>38</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>10.375824361926886</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" s="2" t="s">
         <v>38</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>15.250074330353938</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" s="2" t="s">
         <v>38</v>
       </c>
@@ -10497,7 +10498,7 @@
         <v>5.5768114790878105</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" s="2" t="s">
         <v>38</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>10.008573398193754</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" s="2" t="s">
         <v>38</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>14.860993171672259</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" s="2" t="s">
         <v>38</v>
       </c>
@@ -10548,7 +10549,7 @@
         <v>14.273166220027356</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" s="2" t="s">
         <v>38</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>11.411116016500459</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" s="2" t="s">
         <v>38</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>7.6734246416222023</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" s="2" t="s">
         <v>6</v>
       </c>
@@ -10599,7 +10600,7 @@
         <v>-2.7526191243239597</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" s="2" t="s">
         <v>6</v>
       </c>
@@ -10616,7 +10617,7 @@
         <v>3.8921641253736849</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" s="2" t="s">
         <v>6</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" s="2" t="s">
         <v>6</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>3.3781488976861276</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" s="2" t="s">
         <v>6</v>
       </c>
@@ -10667,7 +10668,7 @@
         <v>6.0928346056277043</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" s="2" t="s">
         <v>6</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>8.8694211804464569</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" s="2" t="s">
         <v>6</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>2.793966072562188</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1">
       <c r="A510" s="2" t="s">
         <v>6</v>
       </c>
@@ -10718,7 +10719,7 @@
         <v>13.655697818287857</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1">
       <c r="A511" s="2" t="s">
         <v>6</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>3.8794125009840181</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" s="2" t="s">
         <v>6</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>2.6097535871560704</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" s="2" t="s">
         <v>6</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>10.872806486998861</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1">
       <c r="A514" s="2" t="s">
         <v>6</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>9.811557713571375</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" s="2" t="s">
         <v>6</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>10.018428057840097</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" s="2" t="s">
         <v>6</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>-7.0149075285464839</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1">
       <c r="A517" s="2" t="s">
         <v>6</v>
       </c>
@@ -10837,7 +10838,7 @@
         <v>14.212995732440477</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" s="2" t="s">
         <v>6</v>
       </c>
@@ -10854,7 +10855,7 @@
         <v>8.6824432408994845</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" s="2" t="s">
         <v>6</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>18.444242275933405</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1">
       <c r="A520" s="2" t="s">
         <v>6</v>
       </c>
@@ -10888,7 +10889,7 @@
         <v>10.145226370016296</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1">
       <c r="A521" s="2" t="s">
         <v>6</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>8.8878493187860528</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1">
       <c r="A522" s="2" t="s">
         <v>6</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>8.2507313727894918</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1">
       <c r="A523" s="2" t="s">
         <v>39</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>-0.24729056719956519</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1">
       <c r="A524" s="2" t="s">
         <v>39</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>-10.541013453238683</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1">
       <c r="A525" s="2" t="s">
         <v>39</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>-3.6133442876533217</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1">
       <c r="A526" s="2" t="s">
         <v>39</v>
       </c>
@@ -10990,7 +10991,7 @@
         <v>6.6148327932086595</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1">
       <c r="A527" s="2" t="s">
         <v>39</v>
       </c>
@@ -11007,7 +11008,7 @@
         <v>2.706764162900321</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" s="2" t="s">
         <v>39</v>
       </c>
@@ -11024,7 +11025,7 @@
         <v>1.8897912999416202</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" s="2" t="s">
         <v>39</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>3.2581331199512098</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" s="2" t="s">
         <v>39</v>
       </c>
@@ -11058,7 +11059,7 @@
         <v>12.871780155479462</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" s="2" t="s">
         <v>39</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>1.9769499211409616</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1">
       <c r="A532" s="2" t="s">
         <v>39</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>6.1909015844434006</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" s="2" t="s">
         <v>39</v>
       </c>
@@ -11109,7 +11110,7 @@
         <v>8.3969721031865028</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1">
       <c r="A534" s="2" t="s">
         <v>39</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>-5.1404196766720069</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" s="2" t="s">
         <v>39</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>12.095515895930623</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" s="2" t="s">
         <v>39</v>
       </c>
@@ -11160,7 +11161,7 @@
         <v>10.41328030610812</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" s="2" t="s">
         <v>39</v>
       </c>
@@ -11177,7 +11178,7 @@
         <v>-4.239667017727764</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" s="2" t="s">
         <v>39</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>11.416754332236225</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" s="2" t="s">
         <v>39</v>
       </c>
@@ -11211,7 +11212,7 @@
         <v>22.529440770519134</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" s="2" t="s">
         <v>39</v>
       </c>
@@ -11228,7 +11229,7 @@
         <v>10.048183337479228</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" s="2" t="s">
         <v>39</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>-2.2268654062738773</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" s="2" t="s">
         <v>39</v>
       </c>
@@ -11262,7 +11263,7 @@
         <v>6.5516136423228257</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" s="2" t="s">
         <v>7</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>6.1612137817960573</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1">
       <c r="A544" s="2" t="s">
         <v>7</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>13.625657868018864</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1">
       <c r="A545" s="2" t="s">
         <v>7</v>
       </c>
@@ -11313,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" s="2" t="s">
         <v>7</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>-6.7694527015442398</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" s="2" t="s">
         <v>7</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>-1.86300665092402</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" s="2" t="s">
         <v>7</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>3.4943695197171039</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" s="2" t="s">
         <v>7</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>0.24453999589531586</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" s="2" t="s">
         <v>7</v>
       </c>
@@ -11398,7 +11399,7 @@
         <v>4.9514450931130849</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" s="2" t="s">
         <v>7</v>
       </c>
@@ -11415,7 +11416,7 @@
         <v>4.1236441326553965</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" s="2" t="s">
         <v>7</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>-12.528245142717454</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" s="2" t="s">
         <v>7</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>5.276120656363112</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1">
       <c r="A554" s="2" t="s">
         <v>7</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>0.92162021181149911</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" s="2" t="s">
         <v>7</v>
       </c>
@@ -11483,7 +11484,7 @@
         <v>1.8535726930449838</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" s="2" t="s">
         <v>7</v>
       </c>
@@ -11500,7 +11501,7 @@
         <v>7.2099377819341033</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" s="2" t="s">
         <v>7</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>9.3985890894795698</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" s="2" t="s">
         <v>7</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>9.722247045580696</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" s="2" t="s">
         <v>7</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>13.976899641624401</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" s="2" t="s">
         <v>7</v>
       </c>
@@ -11568,7 +11569,7 @@
         <v>10.110621940763895</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" s="2" t="s">
         <v>7</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>12.179515808191317</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" s="2" t="s">
         <v>7</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>5.8367114204919242</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1">
       <c r="A563" s="2" t="s">
         <v>8</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>-3.9825835373102731</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" s="2" t="s">
         <v>8</v>
       </c>
@@ -11636,7 +11637,7 @@
         <v>-6.3777272125403908</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" s="2" t="s">
         <v>8</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>6.492418691726848</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" s="2" t="s">
         <v>8</v>
       </c>
@@ -11670,7 +11671,7 @@
         <v>9.4459514909841236</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" s="2" t="s">
         <v>8</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>10.91428957816667</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" s="2" t="s">
         <v>8</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>8.7499949201560179E-3</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" s="2" t="s">
         <v>8</v>
       </c>
@@ -11721,7 +11722,7 @@
         <v>4.8480881288998896</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1">
       <c r="A570" s="2" t="s">
         <v>8</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>21.038375632384891</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" s="2" t="s">
         <v>8</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>18.139920530884346</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" s="2" t="s">
         <v>8</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>-7.8554601977294762</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" s="2" t="s">
         <v>8</v>
       </c>
@@ -11789,7 +11790,7 @@
         <v>10.398545592231978</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" s="2" t="s">
         <v>8</v>
       </c>
@@ -11806,7 +11807,7 @@
         <v>-7.093597758713992</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" s="2" t="s">
         <v>8</v>
       </c>
@@ -11823,7 +11824,7 @@
         <v>10.408722110868435</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" s="2" t="s">
         <v>8</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>3.4449749455702992</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" s="2" t="s">
         <v>8</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>11.743548106940649</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" s="2" t="s">
         <v>8</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>30.986012497058834</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1">
       <c r="A579" s="2" t="s">
         <v>8</v>
       </c>
@@ -11891,7 +11892,7 @@
         <v>27.398405936825622</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" s="2" t="s">
         <v>8</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>6.0445779814796552</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" s="2" t="s">
         <v>8</v>
       </c>
@@ -11925,7 +11926,7 @@
         <v>16.334020951648924</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" s="2" t="s">
         <v>8</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>14.036733268686918</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" s="2" t="s">
         <v>9</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>4.1527784385630095</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" s="2" t="s">
         <v>9</v>
       </c>
@@ -11976,7 +11977,7 @@
         <v>19.892356884801455</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" s="2" t="s">
         <v>9</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>-7.6069202601370556</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" s="2" t="s">
         <v>9</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>8.8338178360080679</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1">
       <c r="A587" s="2" t="s">
         <v>9</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>0.3916196107126178</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1">
       <c r="A588" s="2" t="s">
         <v>9</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>5.5083128907436603</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1">
       <c r="A589" s="2" t="s">
         <v>9</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>0.90202696711590169</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1">
       <c r="A590" s="2" t="s">
         <v>9</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>9.2287590253820309</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1">
       <c r="A591" s="2" t="s">
         <v>9</v>
       </c>
@@ -12095,7 +12096,7 @@
         <v>9.5638282025387049</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1">
       <c r="A592" s="2" t="s">
         <v>9</v>
       </c>
@@ -12112,7 +12113,7 @@
         <v>12.165068689142224</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1">
       <c r="A593" s="2" t="s">
         <v>9</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>-1.9052114649547753</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1">
       <c r="A594" s="2" t="s">
         <v>9</v>
       </c>
@@ -12146,7 +12147,7 @@
         <v>2.4863822056549192</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1">
       <c r="A595" s="2" t="s">
         <v>9</v>
       </c>
@@ -12163,7 +12164,7 @@
         <v>15.025899401473996</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1">
       <c r="A596" s="2" t="s">
         <v>9</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>7.536885795886036</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1">
       <c r="A597" s="2" t="s">
         <v>9</v>
       </c>
@@ -12197,7 +12198,7 @@
         <v>5.484171158392277</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1">
       <c r="A598" s="2" t="s">
         <v>9</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>4.6162465678373055</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1">
       <c r="A599" s="2" t="s">
         <v>9</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>18.051002453582804</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1">
       <c r="A600" s="2" t="s">
         <v>9</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>10.056142123267005</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1">
       <c r="A601" s="2" t="s">
         <v>9</v>
       </c>
@@ -12265,7 +12266,7 @@
         <v>8.2850394483438361</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1">
       <c r="A602" s="2" t="s">
         <v>9</v>
       </c>
@@ -12282,7 +12283,7 @@
         <v>8.884736330574011</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1">
       <c r="A603" s="2" t="s">
         <v>40</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>-7.4054823372590501</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1">
       <c r="A604" s="2" t="s">
         <v>40</v>
       </c>
@@ -12316,7 +12317,7 @@
         <v>10.821508886396648</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1">
       <c r="A605" s="2" t="s">
         <v>40</v>
       </c>
@@ -12333,7 +12334,7 @@
         <v>-1.520823130010635</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1">
       <c r="A606" s="2" t="s">
         <v>40</v>
       </c>
@@ -12350,7 +12351,7 @@
         <v>0.50876462965507185</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1">
       <c r="A607" s="2" t="s">
         <v>40</v>
       </c>
@@ -12367,7 +12368,7 @@
         <v>10.807899550951339</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1">
       <c r="A608" s="2" t="s">
         <v>40</v>
       </c>
@@ -12384,7 +12385,7 @@
         <v>3.4855984902384862</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1">
       <c r="A609" s="2" t="s">
         <v>40</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>5.2613195413270386</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1">
       <c r="A610" s="2" t="s">
         <v>40</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>9.0771238643672145</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1">
       <c r="A611" s="2" t="s">
         <v>40</v>
       </c>
@@ -12435,7 +12436,7 @@
         <v>11.274067292431878</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1">
       <c r="A612" s="2" t="s">
         <v>40</v>
       </c>
@@ -12452,7 +12453,7 @@
         <v>2.0836910314849271</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1">
       <c r="A613" s="2" t="s">
         <v>40</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>5.3877385734754535</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1">
       <c r="A614" s="2" t="s">
         <v>40</v>
       </c>
@@ -12486,7 +12487,7 @@
         <v>3.5307553993854111</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1">
       <c r="A615" s="2" t="s">
         <v>40</v>
       </c>
@@ -12503,7 +12504,7 @@
         <v>12.175080910938425</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1">
       <c r="A616" s="2" t="s">
         <v>40</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>11.292922640904841</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1">
       <c r="A617" s="2" t="s">
         <v>40</v>
       </c>
@@ -12537,7 +12538,7 @@
         <v>4.3074044276111891</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1">
       <c r="A618" s="2" t="s">
         <v>40</v>
       </c>
@@ -12554,7 +12555,7 @@
         <v>7.2681857969974768</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1">
       <c r="A619" s="2" t="s">
         <v>40</v>
       </c>
@@ -12571,7 +12572,7 @@
         <v>14.331835537739753</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1">
       <c r="A620" s="2" t="s">
         <v>40</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>14.178300543095981</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1">
       <c r="A621" s="2" t="s">
         <v>40</v>
       </c>
@@ -12605,7 +12606,7 @@
         <v>6.2703073637044318</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1">
       <c r="A622" s="2" t="s">
         <v>40</v>
       </c>
@@ -12622,7 +12623,7 @@
         <v>8.2997056229457353</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1">
       <c r="A623" s="2" t="s">
         <v>10</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>5.254902015480881</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1">
       <c r="A624" s="2" t="s">
         <v>10</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>14.965526149578823</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1">
       <c r="A625" s="2" t="s">
         <v>10</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>0.61893123824890595</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1">
       <c r="A626" s="2" t="s">
         <v>10</v>
       </c>
@@ -12690,7 +12691,7 @@
         <v>2.1489730747504039</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1">
       <c r="A627" s="2" t="s">
         <v>10</v>
       </c>
@@ -12707,7 +12708,7 @@
         <v>-1.2533238226418471</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1">
       <c r="A628" s="2" t="s">
         <v>10</v>
       </c>
@@ -12724,7 +12725,7 @@
         <v>10.89047852232367</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1">
       <c r="A629" s="2" t="s">
         <v>10</v>
       </c>
@@ -12741,7 +12742,7 @@
         <v>3.178801009400873</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1">
       <c r="A630" s="2" t="s">
         <v>10</v>
       </c>
@@ -12758,7 +12759,7 @@
         <v>4.9514450931131035</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1">
       <c r="A631" s="2" t="s">
         <v>10</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>5.1377653647994093</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1">
       <c r="A632" s="2" t="s">
         <v>10</v>
       </c>
@@ -12792,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1">
       <c r="A633" s="2" t="s">
         <v>10</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>14.747230003113382</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1">
       <c r="A634" s="2" t="s">
         <v>10</v>
       </c>
@@ -12826,7 +12827,7 @@
         <v>-7.4259027143212277</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1">
       <c r="A635" s="2" t="s">
         <v>10</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>-0.91206513898927211</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1">
       <c r="A636" s="2" t="s">
         <v>10</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>-1.5541755055722635</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1">
       <c r="A637" s="2" t="s">
         <v>10</v>
       </c>
@@ -12877,7 +12878,7 @@
         <v>2.3016576704591123</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1">
       <c r="A638" s="2" t="s">
         <v>10</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>8.0752340862509886</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1">
       <c r="A639" s="2" t="s">
         <v>10</v>
       </c>
@@ -12911,7 +12912,7 @@
         <v>9.1774464780044376</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1">
       <c r="A640" s="2" t="s">
         <v>10</v>
       </c>
@@ -12928,7 +12929,7 @@
         <v>11.831968070800732</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1">
       <c r="A641" s="2" t="s">
         <v>10</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>2.7687641282888151</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1">
       <c r="A642" s="2" t="s">
         <v>10</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>4.8070004851856476</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1">
       <c r="A643" s="2" t="s">
         <v>41</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>-6.2547777702981655</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1">
       <c r="A644" s="2" t="s">
         <v>41</v>
       </c>
@@ -12996,7 +12997,7 @@
         <v>5.5651398911953454</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1">
       <c r="A645" s="2" t="s">
         <v>41</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1">
       <c r="A646" s="2" t="s">
         <v>41</v>
       </c>
@@ -13030,7 +13031,7 @@
         <v>-6.8543565487144562</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1">
       <c r="A647" s="2" t="s">
         <v>41</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>3.8463421682510108</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1">
       <c r="A648" s="2" t="s">
         <v>41</v>
       </c>
@@ -13064,7 +13065,7 @@
         <v>3.4961890240208509</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1">
       <c r="A649" s="2" t="s">
         <v>41</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>-4.8408162249045148</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1">
       <c r="A650" s="2" t="s">
         <v>41</v>
       </c>
@@ -13098,7 +13099,7 @@
         <v>13.242064702003686</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1">
       <c r="A651" s="2" t="s">
         <v>41</v>
       </c>
@@ -13115,7 +13116,7 @@
         <v>-0.26228834214125479</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1">
       <c r="A652" s="2" t="s">
         <v>41</v>
       </c>
@@ -13132,7 +13133,7 @@
         <v>-4.1975501973322888</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1">
       <c r="A653" s="2" t="s">
         <v>41</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>11.550095709956931</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1">
       <c r="A654" s="2" t="s">
         <v>41</v>
       </c>
@@ -13166,7 +13167,7 @@
         <v>-2.7027379941868213</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1">
       <c r="A655" s="2" t="s">
         <v>41</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>14.00722166782948</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1">
       <c r="A656" s="2" t="s">
         <v>41</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>19.181141356655118</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1">
       <c r="A657" s="2" t="s">
         <v>41</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>11.166067866209998</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1">
       <c r="A658" s="2" t="s">
         <v>41</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>20.125151576289174</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1">
       <c r="A659" s="2" t="s">
         <v>41</v>
       </c>
@@ -13251,7 +13252,7 @@
         <v>17.151553626831703</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1">
       <c r="A660" s="2" t="s">
         <v>41</v>
       </c>
@@ -13268,7 +13269,7 @@
         <v>20.035217867124647</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1">
       <c r="A661" s="2" t="s">
         <v>41</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>1.8673511172015416</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1">
       <c r="A662" s="2" t="s">
         <v>41</v>
       </c>
@@ -13302,7 +13303,7 @@
         <v>8.2465147849144795</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1">
       <c r="A663" s="2" t="s">
         <v>42</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>-10.565470047824753</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1">
       <c r="A664" s="2" t="s">
         <v>42</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>12.522174252751245</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1">
       <c r="A665" s="2" t="s">
         <v>42</v>
       </c>
@@ -13353,7 +13354,7 @@
         <v>-1.7091654247482837</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1">
       <c r="A666" s="2" t="s">
         <v>42</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>-2.0599659515354514</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1">
       <c r="A667" s="2" t="s">
         <v>42</v>
       </c>
@@ -13387,7 +13388,7 @@
         <v>20.898482097097823</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1">
       <c r="A668" s="2" t="s">
         <v>42</v>
       </c>
@@ -13404,7 +13405,7 @@
         <v>1.2059205850827002</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1">
       <c r="A669" s="2" t="s">
         <v>42</v>
       </c>
@@ -13421,7 +13422,7 @@
         <v>5.9211393790292517</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1">
       <c r="A670" s="2" t="s">
         <v>42</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>9.4152645460298832</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1">
       <c r="A671" s="2" t="s">
         <v>42</v>
       </c>
@@ -13455,7 +13456,7 @@
         <v>12.803649009885214</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1">
       <c r="A672" s="2" t="s">
         <v>42</v>
       </c>
@@ -13472,7 +13473,7 @@
         <v>2.6593216123799173</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1">
       <c r="A673" s="2" t="s">
         <v>42</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>3.8705302604166736</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1">
       <c r="A674" s="2" t="s">
         <v>42</v>
       </c>
@@ -13506,7 +13507,7 @@
         <v>-1.1175013974729964</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1">
       <c r="A675" s="2" t="s">
         <v>42</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>5.882076245180496</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1">
       <c r="A676" s="2" t="s">
         <v>42</v>
       </c>
@@ -13540,7 +13541,7 @@
         <v>11.978346717923879</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1">
       <c r="A677" s="2" t="s">
         <v>42</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>10.164614134101416</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1">
       <c r="A678" s="2" t="s">
         <v>42</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>17.635164498596069</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1">
       <c r="A679" s="2" t="s">
         <v>42</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>11.581388026036359</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1">
       <c r="A680" s="2" t="s">
         <v>42</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>11.264697557454136</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1">
       <c r="A681" s="2" t="s">
         <v>42</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>15.369254512252617</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1">
       <c r="A682" s="2" t="s">
         <v>42</v>
       </c>
@@ -13642,7 +13643,7 @@
         <v>9.8384441524420954</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1">
       <c r="A683" s="2" t="s">
         <v>43</v>
       </c>
@@ -13659,7 +13660,7 @@
         <v>0.29940153534320252</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1">
       <c r="A684" s="2" t="s">
         <v>43</v>
       </c>
@@ -13676,7 +13677,7 @@
         <v>1.6316057324579993</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1">
       <c r="A685" s="2" t="s">
         <v>43</v>
       </c>
@@ -13693,7 +13694,7 @@
         <v>1.8725353938135454</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1">
       <c r="A686" s="2" t="s">
         <v>43</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>5.1436373824174941</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1">
       <c r="A687" s="2" t="s">
         <v>43</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>14.175887707534971</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1">
       <c r="A688" s="2" t="s">
         <v>43</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>0.45370462318191884</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1">
       <c r="A689" s="2" t="s">
         <v>43</v>
       </c>
@@ -13761,7 +13762,7 @@
         <v>-0.86535974399812332</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1">
       <c r="A690" s="2" t="s">
         <v>43</v>
       </c>
@@ -13778,7 +13779,7 @@
         <v>8.4009290011215398</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1">
       <c r="A691" s="2" t="s">
         <v>43</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>4.2167703147299864</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1">
       <c r="A692" s="2" t="s">
         <v>43</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>3.1034911738416637</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1">
       <c r="A693" s="2" t="s">
         <v>43</v>
       </c>
@@ -13829,7 +13830,7 @@
         <v>3.735714913570372</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1">
       <c r="A694" s="2" t="s">
         <v>43</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>5.3582626361027668</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1">
       <c r="A695" s="2" t="s">
         <v>43</v>
       </c>
@@ -13863,7 +13864,7 @@
         <v>10.175980696102187</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1">
       <c r="A696" s="2" t="s">
         <v>43</v>
       </c>
@@ -13880,7 +13881,7 @@
         <v>6.373628002028572</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1">
       <c r="A697" s="2" t="s">
         <v>43</v>
       </c>
@@ -13897,7 +13898,7 @@
         <v>4.5838885127389153</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1">
       <c r="A698" s="2" t="s">
         <v>43</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>11.850628884290037</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1">
       <c r="A699" s="2" t="s">
         <v>43</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>12.263698680833841</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1">
       <c r="A700" s="2" t="s">
         <v>43</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>10.004116606227246</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1">
       <c r="A701" s="2" t="s">
         <v>43</v>
       </c>
@@ -13965,7 +13966,7 @@
         <v>7.6197301028386555</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1">
       <c r="A702" s="2" t="s">
         <v>43</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>6.9948078155647586</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1">
       <c r="A703" s="2" t="s">
         <v>44</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>0.77347940017915651</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1">
       <c r="A704" s="2" t="s">
         <v>44</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>2.4421651849022861</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1">
       <c r="A705" s="2" t="s">
         <v>44</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>-0.72880577896512522</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1">
       <c r="A706" s="2" t="s">
         <v>44</v>
       </c>
@@ -14050,7 +14051,7 @@
         <v>5.6137025232492412</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1">
       <c r="A707" s="2" t="s">
         <v>44</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>10.152429535176582</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1">
       <c r="A708" s="2" t="s">
         <v>44</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>2.7112378598064937</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1">
       <c r="A709" s="2" t="s">
         <v>44</v>
       </c>
@@ -14101,7 +14102,7 @@
         <v>0.59576160067594952</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1">
       <c r="A710" s="2" t="s">
         <v>44</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>12.340223148404107</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1">
       <c r="A711" s="2" t="s">
         <v>44</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v>5.5287016198240559</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1">
       <c r="A712" s="2" t="s">
         <v>44</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>8.0223888291320939</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1">
       <c r="A713" s="2" t="s">
         <v>44</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>0.86732973112599254</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1">
       <c r="A714" s="2" t="s">
         <v>44</v>
       </c>
@@ -14186,7 +14187,7 @@
         <v>-1.0898328072081807</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1">
       <c r="A715" s="2" t="s">
         <v>44</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>11.780299602571189</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1">
       <c r="A716" s="2" t="s">
         <v>44</v>
       </c>
@@ -14220,7 +14221,7 @@
         <v>5.6941553247936731</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1">
       <c r="A717" s="2" t="s">
         <v>44</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>2.1108610188359624</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1">
       <c r="A718" s="2" t="s">
         <v>44</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>6.9388087806110708</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1">
       <c r="A719" s="2" t="s">
         <v>44</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>9.7935174653728456</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1">
       <c r="A720" s="2" t="s">
         <v>44</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>12.740894793050769</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1">
       <c r="A721" s="2" t="s">
         <v>44</v>
       </c>
@@ -14305,7 +14306,7 @@
         <v>6.9688313360165042</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1">
       <c r="A722" s="2" t="s">
         <v>44</v>
       </c>
@@ -14322,7 +14323,7 @@
         <v>6.4262359476401745</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1">
       <c r="A723" s="2" t="s">
         <v>45</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>0.58816717305563215</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1">
       <c r="A724" s="2" t="s">
         <v>45</v>
       </c>
@@ -14356,7 +14357,7 @@
         <v>9.7339975538677947</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1">
       <c r="A725" s="2" t="s">
         <v>45</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>-2.4583001925637658</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1">
       <c r="A726" s="2" t="s">
         <v>45</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>5.3544135427779631</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1">
       <c r="A727" s="2" t="s">
         <v>45</v>
       </c>
@@ -14407,7 +14408,7 @@
         <v>4.6442479833018853</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1">
       <c r="A728" s="2" t="s">
         <v>45</v>
       </c>
@@ -14424,7 +14425,7 @@
         <v>1.6492613285215827</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1">
       <c r="A729" s="2" t="s">
         <v>45</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>1.0444959634857627</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1">
       <c r="A730" s="2" t="s">
         <v>45</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>1.6945119075430444</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1">
       <c r="A731" s="2" t="s">
         <v>45</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>-0.31447289229710867</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" hidden="1">
       <c r="A732" s="2" t="s">
         <v>45</v>
       </c>
@@ -14492,7 +14493,7 @@
         <v>-9.6586536496246858</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" hidden="1">
       <c r="A733" s="2" t="s">
         <v>45</v>
       </c>
@@ -14509,7 +14510,7 @@
         <v>5.8567733318751758</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" hidden="1">
       <c r="A734" s="2" t="s">
         <v>45</v>
       </c>
@@ -14526,7 +14527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" hidden="1">
       <c r="A735" s="2" t="s">
         <v>45</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>10.21320545136434</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" hidden="1">
       <c r="A736" s="2" t="s">
         <v>45</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>5.0639457491389592</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" hidden="1">
       <c r="A737" s="2" t="s">
         <v>45</v>
       </c>
@@ -14577,7 +14578,7 @@
         <v>4.4774688577015294</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" hidden="1">
       <c r="A738" s="2" t="s">
         <v>45</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>9.6460087903396321</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" hidden="1">
       <c r="A739" s="2" t="s">
         <v>45</v>
       </c>
@@ -14611,7 +14612,7 @@
         <v>5.5179529210417151</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" hidden="1">
       <c r="A740" s="2" t="s">
         <v>45</v>
       </c>
@@ -14628,7 +14629,7 @@
         <v>-9.1460969334493107</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" hidden="1">
       <c r="A741" s="2" t="s">
         <v>45</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>9.6201271923673772</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" hidden="1">
       <c r="A742" s="2" t="s">
         <v>45</v>
       </c>
@@ -14662,7 +14663,7 @@
         <v>2.8236612906414265</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" hidden="1">
       <c r="A743" s="2" t="s">
         <v>89</v>
       </c>
@@ -14679,7 +14680,7 @@
         <v>3.0903708232653901</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" hidden="1">
       <c r="A744" s="2" t="s">
         <v>89</v>
       </c>
@@ -14696,7 +14697,7 @@
         <v>5.254944511544041</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" hidden="1">
       <c r="A745" s="2" t="s">
         <v>89</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>-3.6063262474183557</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" hidden="1">
       <c r="A746" s="2" t="s">
         <v>89</v>
       </c>
@@ -14730,7 +14731,7 @@
         <v>9.5279015827782025</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" hidden="1">
       <c r="A747" s="2" t="s">
         <v>89</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>0.62744450326468038</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" hidden="1">
       <c r="A748" s="2" t="s">
         <v>89</v>
       </c>
@@ -14764,7 +14765,7 @@
         <v>-5.7548928795361904</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" hidden="1">
       <c r="A749" s="2" t="s">
         <v>89</v>
       </c>
@@ -14781,7 +14782,7 @@
         <v>5.1698715391980716</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" hidden="1">
       <c r="A750" s="2" t="s">
         <v>89</v>
       </c>
@@ -14798,7 +14799,7 @@
         <v>3.2692801012586896</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" hidden="1">
       <c r="A751" s="2" t="s">
         <v>89</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>-3.6691937653793874</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" hidden="1">
       <c r="A752" s="2" t="s">
         <v>89</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>-0.9159859933154102</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" hidden="1">
       <c r="A753" s="2" t="s">
         <v>89</v>
       </c>
@@ -14849,7 +14850,7 @@
         <v>1.9853239558041209</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" hidden="1">
       <c r="A754" s="2" t="s">
         <v>89</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" hidden="1">
       <c r="A755" s="2" t="s">
         <v>89</v>
       </c>
@@ -14883,7 +14884,7 @@
         <v>10.295549150500745</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" hidden="1">
       <c r="A756" s="2" t="s">
         <v>89</v>
       </c>
@@ -14900,7 +14901,7 @@
         <v>7.2357299137479165</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" hidden="1">
       <c r="A757" s="2" t="s">
         <v>89</v>
       </c>
@@ -14917,7 +14918,7 @@
         <v>-3.443915063271799</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" hidden="1">
       <c r="A758" s="2" t="s">
         <v>89</v>
       </c>
@@ -14934,7 +14935,7 @@
         <v>7.7897207868762104</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" hidden="1">
       <c r="A759" s="2" t="s">
         <v>89</v>
       </c>
@@ -14951,7 +14952,7 @@
         <v>14.201121901800498</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" hidden="1">
       <c r="A760" s="2" t="s">
         <v>89</v>
       </c>
@@ -14968,7 +14969,7 @@
         <v>6.858845443422136</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" hidden="1">
       <c r="A761" s="2" t="s">
         <v>89</v>
       </c>
@@ -14985,7 +14986,7 @@
         <v>11.56195873116317</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" hidden="1">
       <c r="A762" s="2" t="s">
         <v>89</v>
       </c>
@@ -15002,7 +15003,7 @@
         <v>4.0676246058591783</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" hidden="1">
       <c r="A763" s="2" t="s">
         <v>46</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>3.8154680334872957</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" hidden="1">
       <c r="A764" s="2" t="s">
         <v>46</v>
       </c>
@@ -15036,7 +15037,7 @@
         <v>8.5046615328367317</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" hidden="1">
       <c r="A765" s="2" t="s">
         <v>46</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>-0.90477856667525824</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" hidden="1">
       <c r="A766" s="2" t="s">
         <v>46</v>
       </c>
@@ -15070,7 +15071,7 @@
         <v>5.9922451152377487</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" hidden="1">
       <c r="A767" s="2" t="s">
         <v>46</v>
       </c>
@@ -15087,7 +15088,7 @@
         <v>12.201189415413056</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" hidden="1">
       <c r="A768" s="2" t="s">
         <v>46</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" hidden="1">
       <c r="A769" s="2" t="s">
         <v>46</v>
       </c>
@@ -15121,7 +15122,7 @@
         <v>5.8979620700719622</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" hidden="1">
       <c r="A770" s="2" t="s">
         <v>46</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>3.7916479332782553</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" hidden="1">
       <c r="A771" s="2" t="s">
         <v>46</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>3.4171696315039282</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" hidden="1">
       <c r="A772" s="2" t="s">
         <v>46</v>
       </c>
@@ -15172,7 +15173,7 @@
         <v>2.9288608784229919</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" hidden="1">
       <c r="A773" s="2" t="s">
         <v>46</v>
       </c>
@@ -15189,7 +15190,7 @@
         <v>4.7594186195697707</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" hidden="1">
       <c r="A774" s="2" t="s">
         <v>46</v>
       </c>
@@ -15206,7 +15207,7 @@
         <v>2.2618657707832073</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" hidden="1">
       <c r="A775" s="2" t="s">
         <v>46</v>
       </c>
@@ -15223,7 +15224,7 @@
         <v>4.1566625067612275</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" hidden="1">
       <c r="A776" s="2" t="s">
         <v>46</v>
       </c>
@@ -15240,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" hidden="1">
       <c r="A777" s="2" t="s">
         <v>46</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>-2.5379616163955716</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" hidden="1">
       <c r="A778" s="2" t="s">
         <v>46</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>6.6675206193291316</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" hidden="1">
       <c r="A779" s="2" t="s">
         <v>46</v>
       </c>
@@ -15291,7 +15292,7 @@
         <v>7.629465965037439</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" hidden="1">
       <c r="A780" s="2" t="s">
         <v>46</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>7.70689883245121</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" hidden="1">
       <c r="A781" s="2" t="s">
         <v>46</v>
       </c>
@@ -15325,7 +15326,7 @@
         <v>6.3099853318189627</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" hidden="1">
       <c r="A782" s="2" t="s">
         <v>46</v>
       </c>
@@ -15342,7 +15343,7 @@
         <v>4.6569946021080169</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" hidden="1">
       <c r="A783" s="2" t="s">
         <v>47</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>-1.9620692299744755</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" hidden="1">
       <c r="A784" s="2" t="s">
         <v>47</v>
       </c>
@@ -15376,7 +15377,7 @@
         <v>16.487397690722823</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" hidden="1">
       <c r="A785" s="2" t="s">
         <v>47</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>2.3118817752178269</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" hidden="1">
       <c r="A786" s="2" t="s">
         <v>47</v>
       </c>
@@ -15410,7 +15411,7 @@
         <v>7.1171251118286847</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" hidden="1">
       <c r="A787" s="2" t="s">
         <v>47</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>0.77041783906653782</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" hidden="1">
       <c r="A788" s="2" t="s">
         <v>47</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>1.6295951641831528</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" hidden="1">
       <c r="A789" s="2" t="s">
         <v>47</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>0.97636994420982581</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" hidden="1">
       <c r="A790" s="2" t="s">
         <v>47</v>
       </c>
@@ -15478,7 +15479,7 @@
         <v>4.7427705186260694</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" hidden="1">
       <c r="A791" s="2" t="s">
         <v>47</v>
       </c>
@@ -15495,7 +15496,7 @@
         <v>0.52554135835648619</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" hidden="1">
       <c r="A792" s="2" t="s">
         <v>47</v>
       </c>
@@ -15512,7 +15513,7 @@
         <v>-0.69458859351978786</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" hidden="1">
       <c r="A793" s="2" t="s">
         <v>47</v>
       </c>
@@ -15529,7 +15530,7 @@
         <v>-0.27194311742869015</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" hidden="1">
       <c r="A794" s="2" t="s">
         <v>47</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>-0.6912584194400172</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" hidden="1">
       <c r="A795" s="2" t="s">
         <v>47</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>14.717156487559862</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" hidden="1">
       <c r="A796" s="2" t="s">
         <v>47</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>3.7348721595064029</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" hidden="1">
       <c r="A797" s="2" t="s">
         <v>47</v>
       </c>
@@ -15597,7 +15598,7 @@
         <v>10.761987507323054</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" hidden="1">
       <c r="A798" s="2" t="s">
         <v>47</v>
       </c>
@@ -15614,7 +15615,7 @@
         <v>8.3083502292248248</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" hidden="1">
       <c r="A799" s="2" t="s">
         <v>47</v>
       </c>
@@ -15631,7 +15632,7 @@
         <v>11.584012903856319</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" hidden="1">
       <c r="A800" s="2" t="s">
         <v>47</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>6.7282709022878402</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" hidden="1">
       <c r="A801" s="2" t="s">
         <v>47</v>
       </c>
@@ -15665,7 +15666,7 @@
         <v>12.539918412518384</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" hidden="1">
       <c r="A802" s="2" t="s">
         <v>47</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>7.0258934847867645</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" hidden="1">
       <c r="A803" s="2" t="s">
         <v>48</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>-5.2708024009383987</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" hidden="1">
       <c r="A804" s="2" t="s">
         <v>48</v>
       </c>
@@ -15716,7 +15717,7 @@
         <v>9.9137505053834225</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" hidden="1">
       <c r="A805" s="2" t="s">
         <v>48</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>3.6092607287629912</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" hidden="1">
       <c r="A806" s="2" t="s">
         <v>48</v>
       </c>
@@ -15750,7 +15751,7 @@
         <v>12.334568170418752</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" hidden="1">
       <c r="A807" s="2" t="s">
         <v>48</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>2.6559844464318312</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" hidden="1">
       <c r="A808" s="2" t="s">
         <v>48</v>
       </c>
@@ -15784,7 +15785,7 @@
         <v>0.40048906211235508</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" hidden="1">
       <c r="A809" s="2" t="s">
         <v>48</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>2.0474559704346622</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" hidden="1">
       <c r="A810" s="2" t="s">
         <v>48</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>12.475407901891822</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" hidden="1">
       <c r="A811" s="2" t="s">
         <v>48</v>
       </c>
@@ -15835,7 +15836,7 @@
         <v>7.0633344833654093</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" hidden="1">
       <c r="A812" s="2" t="s">
         <v>48</v>
       </c>
@@ -15852,7 +15853,7 @@
         <v>3.7739001807550117</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" hidden="1">
       <c r="A813" s="2" t="s">
         <v>48</v>
       </c>
@@ -15869,7 +15870,7 @@
         <v>-3.3403637365411152</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" hidden="1">
       <c r="A814" s="2" t="s">
         <v>48</v>
       </c>
@@ -15886,7 +15887,7 @@
         <v>0.23711944504987789</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" hidden="1">
       <c r="A815" s="2" t="s">
         <v>48</v>
       </c>
@@ -15903,7 +15904,7 @@
         <v>8.3472497072022751</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" hidden="1">
       <c r="A816" s="2" t="s">
         <v>48</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>0.85360157453249985</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" hidden="1">
       <c r="A817" s="2" t="s">
         <v>48</v>
       </c>
@@ -15937,7 +15938,7 @@
         <v>8.4607725938390299</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" hidden="1">
       <c r="A818" s="2" t="s">
         <v>48</v>
       </c>
@@ -15954,7 +15955,7 @@
         <v>10.455691211145947</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" hidden="1">
       <c r="A819" s="2" t="s">
         <v>48</v>
       </c>
@@ -15971,7 +15972,7 @@
         <v>8.4887886584214129</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" hidden="1">
       <c r="A820" s="2" t="s">
         <v>48</v>
       </c>
@@ -15988,7 +15989,7 @@
         <v>6.5367904128120591</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" hidden="1">
       <c r="A821" s="2" t="s">
         <v>48</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>4.4772159657195845</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" hidden="1">
       <c r="A822" s="2" t="s">
         <v>48</v>
       </c>
@@ -16022,7 +16023,7 @@
         <v>6.255964490097182</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" hidden="1">
       <c r="A823" s="2" t="s">
         <v>49</v>
       </c>
@@ -16039,7 +16040,7 @@
         <v>-3.8995544133567441</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" hidden="1">
       <c r="A824" s="2" t="s">
         <v>49</v>
       </c>
@@ -16056,7 +16057,7 @@
         <v>9.5227335487157347</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" hidden="1">
       <c r="A825" s="2" t="s">
         <v>49</v>
       </c>
@@ -16073,7 +16074,7 @@
         <v>4.790619653856476</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" hidden="1">
       <c r="A826" s="2" t="s">
         <v>49</v>
       </c>
@@ -16090,7 +16091,7 @@
         <v>7.6250277778352391</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" hidden="1">
       <c r="A827" s="2" t="s">
         <v>49</v>
       </c>
@@ -16107,7 +16108,7 @@
         <v>8.6327633156609576</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" hidden="1">
       <c r="A828" s="2" t="s">
         <v>49</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" hidden="1">
       <c r="A829" s="2" t="s">
         <v>49</v>
       </c>
@@ -16141,7 +16142,7 @@
         <v>-3.7876025869432368</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" hidden="1">
       <c r="A830" s="2" t="s">
         <v>49</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>15.79736705966841</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" hidden="1">
       <c r="A831" s="2" t="s">
         <v>49</v>
       </c>
@@ -16175,7 +16176,7 @@
         <v>2.6201416634224151</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" hidden="1">
       <c r="A832" s="2" t="s">
         <v>49</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>-5.3133095521265288</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" hidden="1">
       <c r="A833" s="2" t="s">
         <v>49</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" hidden="1">
       <c r="A834" s="2" t="s">
         <v>49</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>2.2618657707832064</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" hidden="1">
       <c r="A835" s="2" t="s">
         <v>49</v>
       </c>
@@ -16243,7 +16244,7 @@
         <v>8.8201472089511661</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" hidden="1">
       <c r="A836" s="2" t="s">
         <v>49</v>
       </c>
@@ -16260,7 +16261,7 @@
         <v>4.1805838503672543</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" hidden="1">
       <c r="A837" s="2" t="s">
         <v>49</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>3.8542961083011424</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" hidden="1">
       <c r="A838" s="2" t="s">
         <v>49</v>
       </c>
@@ -16294,7 +16295,7 @@
         <v>10.326343635536194</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" hidden="1">
       <c r="A839" s="2" t="s">
         <v>49</v>
       </c>
@@ -16311,7 +16312,7 @@
         <v>9.330952712517087</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" hidden="1">
       <c r="A840" s="2" t="s">
         <v>49</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>-10.037716536053278</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" hidden="1">
       <c r="A841" s="2" t="s">
         <v>49</v>
       </c>
@@ -16345,7 +16346,7 @@
         <v>5.9023344788772381</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" hidden="1">
       <c r="A842" s="2" t="s">
         <v>49</v>
       </c>
@@ -16362,7 +16363,7 @@
         <v>5.2356825405685594</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" hidden="1">
       <c r="A843" s="2" t="s">
         <v>50</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>2.9919136818676302</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" hidden="1">
       <c r="A844" s="2" t="s">
         <v>50</v>
       </c>
@@ -16396,7 +16397,7 @@
         <v>-27.968405861356082</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" hidden="1">
       <c r="A845" s="2" t="s">
         <v>50</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v>2.9391138463052071</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" hidden="1">
       <c r="A846" s="2" t="s">
         <v>50</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>-1.3653214318360818</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" hidden="1">
       <c r="A847" s="2" t="s">
         <v>50</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>11.33887814786728</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" hidden="1">
       <c r="A848" s="2" t="s">
         <v>50</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>4.4606042335674569</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" hidden="1">
       <c r="A849" s="2" t="s">
         <v>50</v>
       </c>
@@ -16481,7 +16482,7 @@
         <v>3.5574464257864071</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" hidden="1">
       <c r="A850" s="2" t="s">
         <v>50</v>
       </c>
@@ -16498,7 +16499,7 @@
         <v>9.6218071142442927</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" hidden="1">
       <c r="A851" s="2" t="s">
         <v>50</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>0.27821311548132821</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" hidden="1">
       <c r="A852" s="2" t="s">
         <v>50</v>
       </c>
@@ -16532,7 +16533,7 @@
         <v>-0.80013489140927185</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" hidden="1">
       <c r="A853" s="2" t="s">
         <v>50</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>-0.17063502864511204</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" hidden="1">
       <c r="A854" s="2" t="s">
         <v>50</v>
       </c>
@@ -16566,7 +16567,7 @@
         <v>9.1159550695533298</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" hidden="1">
       <c r="A855" s="2" t="s">
         <v>50</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>13.909070815909047</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" hidden="1">
       <c r="A856" s="2" t="s">
         <v>50</v>
       </c>
@@ -16600,7 +16601,7 @@
         <v>3.744446339252542</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" hidden="1">
       <c r="A857" s="2" t="s">
         <v>50</v>
       </c>
@@ -16617,7 +16618,7 @@
         <v>-0.60960204170164012</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" hidden="1">
       <c r="A858" s="2" t="s">
         <v>50</v>
       </c>
@@ -16634,7 +16635,7 @@
         <v>8.3486936368252778</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" hidden="1">
       <c r="A859" s="2" t="s">
         <v>50</v>
       </c>
@@ -16651,7 +16652,7 @@
         <v>10.725740452821016</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" hidden="1">
       <c r="A860" s="2" t="s">
         <v>50</v>
       </c>
@@ -16668,7 +16669,7 @@
         <v>15.28293494625507</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" hidden="1">
       <c r="A861" s="2" t="s">
         <v>50</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>7.0362872211367016</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" hidden="1">
       <c r="A862" s="2" t="s">
         <v>50</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>6.6486793489872147</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" hidden="1">
       <c r="A863" s="2" t="s">
         <v>51</v>
       </c>
@@ -16719,7 +16720,7 @@
         <v>2.6170529681125272</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" hidden="1">
       <c r="A864" s="2" t="s">
         <v>51</v>
       </c>
@@ -16736,7 +16737,7 @@
         <v>1.7631297548623088</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" hidden="1">
       <c r="A865" s="2" t="s">
         <v>51</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>-2.5315547435512027</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" hidden="1">
       <c r="A866" s="2" t="s">
         <v>51</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>4.0236007599110346</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" hidden="1">
       <c r="A867" s="2" t="s">
         <v>51</v>
       </c>
@@ -16787,7 +16788,7 @@
         <v>8.9962240477062139</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" hidden="1">
       <c r="A868" s="2" t="s">
         <v>51</v>
       </c>
@@ -16804,7 +16805,7 @@
         <v>1.6582718063378306</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" hidden="1">
       <c r="A869" s="2" t="s">
         <v>51</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>4.3192549220751175</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" hidden="1">
       <c r="A870" s="2" t="s">
         <v>51</v>
       </c>
@@ -16838,7 +16839,7 @@
         <v>4.5105540825961885</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" hidden="1">
       <c r="A871" s="2" t="s">
         <v>51</v>
       </c>
@@ -16855,7 +16856,7 @@
         <v>-2.614607475423635</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" hidden="1">
       <c r="A872" s="2" t="s">
         <v>51</v>
       </c>
@@ -16872,7 +16873,7 @@
         <v>-5.5919469504264452</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" hidden="1">
       <c r="A873" s="2" t="s">
         <v>51</v>
       </c>
@@ -16889,7 +16890,7 @@
         <v>7.1413346425352149</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" hidden="1">
       <c r="A874" s="2" t="s">
         <v>51</v>
       </c>
@@ -16906,7 +16907,7 @@
         <v>0.7364459651807852</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" hidden="1">
       <c r="A875" s="2" t="s">
         <v>51</v>
       </c>
@@ -16923,7 +16924,7 @@
         <v>2.8993513948989467</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" hidden="1">
       <c r="A876" s="2" t="s">
         <v>51</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>3.4452568899106835</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" hidden="1">
       <c r="A877" s="2" t="s">
         <v>51</v>
       </c>
@@ -16957,7 +16958,7 @@
         <v>7.9117674547933543</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" hidden="1">
       <c r="A878" s="2" t="s">
         <v>51</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>6.3441020103450247</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" hidden="1">
       <c r="A879" s="2" t="s">
         <v>51</v>
       </c>
@@ -16991,7 +16992,7 @@
         <v>12.165885794453182</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" hidden="1">
       <c r="A880" s="2" t="s">
         <v>51</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>9.4155166180325338</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" hidden="1">
       <c r="A881" s="2" t="s">
         <v>51</v>
       </c>
@@ -17025,7 +17026,7 @@
         <v>5.3982249741318169</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" hidden="1">
       <c r="A882" s="2" t="s">
         <v>51</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>4.9522715792768057</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" hidden="1">
       <c r="A883" s="2" t="s">
         <v>11</v>
       </c>
@@ -17059,7 +17060,7 @@
         <v>0.71830592500217538</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" hidden="1">
       <c r="A884" s="2" t="s">
         <v>11</v>
       </c>
@@ -17076,7 +17077,7 @@
         <v>-1.6126477873654768</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" hidden="1">
       <c r="A885" s="2" t="s">
         <v>11</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>0.41945297642267138</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" hidden="1">
       <c r="A886" s="2" t="s">
         <v>11</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>9.0326871090270746</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" hidden="1">
       <c r="A887" s="2" t="s">
         <v>11</v>
       </c>
@@ -17127,7 +17128,7 @@
         <v>1.6839070228171393</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" hidden="1">
       <c r="A888" s="2" t="s">
         <v>11</v>
       </c>
@@ -17144,7 +17145,7 @@
         <v>2.8164689497446758</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" hidden="1">
       <c r="A889" s="2" t="s">
         <v>11</v>
       </c>
@@ -17161,7 +17162,7 @@
         <v>2.3975645140979331</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" hidden="1">
       <c r="A890" s="2" t="s">
         <v>11</v>
       </c>
@@ -17178,7 +17179,7 @@
         <v>12.15591131102085</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" hidden="1">
       <c r="A891" s="2" t="s">
         <v>11</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>4.5717473283876275</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" hidden="1">
       <c r="A892" s="2" t="s">
         <v>11</v>
       </c>
@@ -17212,7 +17213,7 @@
         <v>10.727705580191483</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" hidden="1">
       <c r="A893" s="2" t="s">
         <v>11</v>
       </c>
@@ -17229,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" hidden="1">
       <c r="A894" s="2" t="s">
         <v>11</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>4.821425902862118</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" hidden="1">
       <c r="A895" s="2" t="s">
         <v>11</v>
       </c>
@@ -17263,7 +17264,7 @@
         <v>5.9782957075440191</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" hidden="1">
       <c r="A896" s="2" t="s">
         <v>11</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>18.633803236805186</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" hidden="1">
       <c r="A897" s="2" t="s">
         <v>11</v>
       </c>
@@ -17297,7 +17298,7 @@
         <v>-0.55632048890298158</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" hidden="1">
       <c r="A898" s="2" t="s">
         <v>11</v>
       </c>
@@ -17314,7 +17315,7 @@
         <v>3.6932380067388837</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" hidden="1">
       <c r="A899" s="2" t="s">
         <v>11</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>17.596942361268773</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" hidden="1">
       <c r="A900" s="2" t="s">
         <v>11</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>7.8706108639222752</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" hidden="1">
       <c r="A901" s="2" t="s">
         <v>11</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>7.950392193962065</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" hidden="1">
       <c r="A902" s="2" t="s">
         <v>11</v>
       </c>
@@ -17383,7 +17384,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C902" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C902" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="VIC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
@@ -17399,18 +17406,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -17422,7 +17429,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="9"/>
       <c r="C2" s="5" t="s">
@@ -17432,7 +17439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -17446,7 +17453,7 @@
         <v>-3.0289498186416921</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -17460,7 +17467,7 @@
         <v>-3.4383714421189961</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -17474,7 +17481,7 @@
         <v>-2.61523745720908</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -17488,7 +17495,7 @@
         <v>1.624140031716681</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -17502,7 +17509,7 @@
         <v>10.423975219570423</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
@@ -17516,7 +17523,7 @@
         <v>1.9824147874042428</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -17530,7 +17537,7 @@
         <v>6.2191735825192502</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -17544,7 +17551,7 @@
         <v>10.940464351583994</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -17558,7 +17565,7 @@
         <v>7.081619744017047</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>76</v>
       </c>
@@ -17572,7 +17579,7 @@
         <v>-1.9243708560806014</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -17586,7 +17593,7 @@
         <v>4.4549945416524777</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -17600,7 +17607,7 @@
         <v>10.542345326305377</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -17614,7 +17621,7 @@
         <v>16.054960481611495</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -17628,7 +17635,7 @@
         <v>8.6229155680428651</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -17642,7 +17649,7 @@
         <v>6.5046303674149843</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -17656,7 +17663,7 @@
         <v>12.614321741749698</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -17670,7 +17677,7 @@
         <v>16.684642792199494</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -17684,7 +17691,7 @@
         <v>10.688653182326295</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
@@ -17698,7 +17705,7 @@
         <v>7.2187552911606767</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -17712,7 +17719,7 @@
         <v>8.9507949726256335</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
@@ -17726,7 +17733,7 @@
         <v>-1.9464142798675346</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -17740,7 +17747,7 @@
         <v>0.13869097307117378</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -17754,7 +17761,7 @@
         <v>0.41076992162614889</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -17768,7 +17775,7 @@
         <v>7.1767204774844302</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -17782,7 +17789,7 @@
         <v>12.511428634636774</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
@@ -17796,7 +17803,7 @@
         <v>3.7082891740123887</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -17810,7 +17817,7 @@
         <v>7.178390007749111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -17824,7 +17831,7 @@
         <v>9.1971168296883423</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
@@ -17838,7 +17845,7 @@
         <v>7.8116261112107068</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -17852,7 +17859,7 @@
         <v>0.33604119555461687</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -17866,7 +17873,7 @@
         <v>6.0521749126231512</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
@@ -17880,7 +17887,7 @@
         <v>8.0070877486836487</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
@@ -17894,7 +17901,7 @@
         <v>19.64306360425304</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -17908,7 +17915,7 @@
         <v>9.0400066392150631</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -17922,7 +17929,7 @@
         <v>7.3333770529279887</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
@@ -17936,7 +17943,7 @@
         <v>13.977117757966043</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -17950,7 +17957,7 @@
         <v>15.237211864736294</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -17964,7 +17971,7 @@
         <v>12.155451617892318</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -17978,7 +17985,7 @@
         <v>6.7950561611656761</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -17992,7 +17999,7 @@
         <v>9.749266654656477</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
@@ -18006,7 +18013,7 @@
         <v>-0.70868598697222929</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -18020,7 +18027,7 @@
         <v>10.745374781078974</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -18034,7 +18041,7 @@
         <v>-0.21019300530458335</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>78</v>
       </c>
@@ -18048,7 +18055,7 @@
         <v>1.0902847206658837</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>78</v>
       </c>
@@ -18062,7 +18069,7 @@
         <v>8.9701167565165232</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -18076,7 +18083,7 @@
         <v>3.5076836570887804</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>78</v>
       </c>
@@ -18090,7 +18097,7 @@
         <v>3.0272858181229392</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>78</v>
       </c>
@@ -18104,7 +18111,7 @@
         <v>10.933946994215685</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -18118,7 +18125,7 @@
         <v>7.4229287790483909</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>78</v>
       </c>
@@ -18132,7 +18139,7 @@
         <v>0.1932266927877089</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>78</v>
       </c>
@@ -18146,7 +18153,7 @@
         <v>6.0825499653949313</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>78</v>
       </c>
@@ -18160,7 +18167,7 @@
         <v>-1.3521541473335528</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>78</v>
       </c>
@@ -18174,7 +18181,7 @@
         <v>10.545441075193846</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>78</v>
       </c>
@@ -18188,7 +18195,7 @@
         <v>9.4314502195497525</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
@@ -18202,7 +18209,7 @@
         <v>6.7235844654963559</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
@@ -18216,7 +18223,7 @@
         <v>13.782577792758474</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
@@ -18230,7 +18237,7 @@
         <v>16.065428278895663</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -18244,7 +18251,7 @@
         <v>10.533624475673415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>78</v>
       </c>
@@ -18258,7 +18265,7 @@
         <v>8.1463841537486417</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
@@ -18272,7 +18279,7 @@
         <v>8.4217077989379003</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
@@ -18286,7 +18293,7 @@
         <v>1.3396571161084814</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>79</v>
       </c>
@@ -18300,7 +18307,7 @@
         <v>1.6171271739526878</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
@@ -18314,7 +18321,7 @@
         <v>-6.4223252607194165E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
@@ -18328,7 +18335,7 @@
         <v>4.6402230676925278</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -18342,7 +18349,7 @@
         <v>9.6415483322086182</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>79</v>
       </c>
@@ -18356,7 +18363,7 @@
         <v>1.0002755201364086</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
@@ -18370,7 +18377,7 @@
         <v>0.69764299579189637</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -18384,7 +18391,7 @@
         <v>8.2339874303122667</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -18398,7 +18405,7 @@
         <v>3.1663269076066487</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
@@ -18412,7 +18419,7 @@
         <v>5.5743176952003006</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
@@ -18426,7 +18433,7 @@
         <v>2.1083356070908974</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -18440,7 +18447,7 @@
         <v>1.6953056126303216</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -18454,7 +18461,7 @@
         <v>9.9939387767745576</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -18468,7 +18475,7 @@
         <v>5.1901210666303133</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -18482,7 +18489,7 @@
         <v>3.0046864585766797</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -18496,7 +18503,7 @@
         <v>7.7994618879240791</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -18510,7 +18517,7 @@
         <v>11.095195544439726</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -18524,7 +18531,7 @@
         <v>10.073251634756456</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -18538,7 +18545,7 @@
         <v>7.5831639601275382</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
@@ -18552,7 +18559,7 @@
         <v>5.7629836679700324</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -18566,7 +18573,7 @@
         <v>0.40516226862503052</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
@@ -18580,7 +18587,7 @@
         <v>8.7755196830618782</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -18594,7 +18601,7 @@
         <v>3.0494076467559044</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
@@ -18608,7 +18615,7 @@
         <v>8.0374285147042048</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
@@ -18622,7 +18629,7 @@
         <v>3.1503489067495907</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>80</v>
       </c>
@@ -18636,7 +18643,7 @@
         <v>0.96755244813009522</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
@@ -18650,7 +18657,7 @@
         <v>0.89797169426361556</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -18664,7 +18671,7 @@
         <v>9.332863539452001</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>80</v>
       </c>
@@ -18678,7 +18685,7 @@
         <v>3.9926035608831527</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>80</v>
       </c>
@@ -18692,7 +18699,7 @@
         <v>0.90388580149995523</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -18706,7 +18713,7 @@
         <v>-1.1625256484729274</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>80</v>
       </c>
@@ -18720,7 +18727,7 @@
         <v>0.24020297858487494</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>80</v>
       </c>
@@ -18734,7 +18741,7 @@
         <v>10.456168014642072</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>80</v>
       </c>
@@ -18748,7 +18755,7 @@
         <v>2.2207356217464103</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>80</v>
       </c>
@@ -18762,7 +18769,7 @@
         <v>7.8866381610104117</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>80</v>
       </c>
@@ -18776,7 +18783,7 @@
         <v>8.8717582428747583</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>80</v>
       </c>
@@ -18790,7 +18797,7 @@
         <v>10.279763480477962</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>80</v>
       </c>
@@ -18804,7 +18811,7 @@
         <v>5.5084134756725707</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>80</v>
       </c>
@@ -18818,7 +18825,7 @@
         <v>7.8333590197709579</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>80</v>
       </c>
@@ -18832,7 +18839,7 @@
         <v>6.0274168800692269</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>81</v>
       </c>
@@ -18846,7 +18853,7 @@
         <v>2.5500650127761681</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>81</v>
       </c>
@@ -18860,7 +18867,7 @@
         <v>-3.77829238285267</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>81</v>
       </c>
@@ -18874,7 +18881,7 @@
         <v>-0.1104576275150691</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>81</v>
       </c>
@@ -18888,7 +18895,7 @@
         <v>0.52174545219725121</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>81</v>
       </c>
@@ -18902,7 +18909,7 @@
         <v>11.095761922335974</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>81</v>
       </c>
@@ -18916,7 +18923,7 @@
         <v>3.1165724323864485</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>81</v>
       </c>
@@ -18930,7 +18937,7 @@
         <v>3.9371660792679943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>81</v>
       </c>
@@ -18944,7 +18951,7 @@
         <v>6.9330159054795493</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>81</v>
       </c>
@@ -18958,7 +18965,7 @@
         <v>-1.3813320038896428</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
@@ -18972,7 +18979,7 @@
         <v>-3.5294644922005882</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>81</v>
       </c>
@@ -18986,7 +18993,7 @@
         <v>3.9439029925430704</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>81</v>
       </c>
@@ -19000,7 +19007,7 @@
         <v>6.4918656755507387</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>81</v>
       </c>
@@ -19014,7 +19021,7 @@
         <v>8.9782064681705673</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>81</v>
       </c>
@@ -19028,7 +19035,7 @@
         <v>3.4451033079114448</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>81</v>
       </c>
@@ -19042,7 +19049,7 @@
         <v>2.0199649327554408</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>81</v>
       </c>
@@ -19056,7 +19063,7 @@
         <v>7.3157998054996041</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>81</v>
       </c>
@@ -19070,7 +19077,7 @@
         <v>10.985390514554672</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>81</v>
       </c>
@@ -19084,7 +19091,7 @@
         <v>9.7965274372502709</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>81</v>
       </c>
@@ -19098,7 +19105,7 @@
         <v>6.0648665753962234</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>81</v>
       </c>
@@ -19112,7 +19119,7 @@
         <v>5.7314029030558604</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>82</v>
       </c>
@@ -19126,7 +19133,7 @@
         <v>-0.18187702078071</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>82</v>
       </c>
@@ -19140,7 +19147,7 @@
         <v>-3.6068149867400026</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>82</v>
       </c>
@@ -19154,7 +19161,7 @@
         <v>-0.1320650529096826</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>82</v>
       </c>
@@ -19168,7 +19175,7 @@
         <v>7.4545545964388369</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>82</v>
       </c>
@@ -19182,7 +19189,7 @@
         <v>0.73886190630229642</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>82</v>
       </c>
@@ -19196,7 +19203,7 @@
         <v>1.9696891273508905</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
         <v>82</v>
       </c>
@@ -19210,7 +19217,7 @@
         <v>1.6018673256491236</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>82</v>
       </c>
@@ -19224,7 +19231,7 @@
         <v>7.8753668184535552</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
         <v>82</v>
       </c>
@@ -19238,7 +19245,7 @@
         <v>4.6379579308717638</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
         <v>82</v>
       </c>
@@ -19252,7 +19259,7 @@
         <v>6.9993698534103226</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>82</v>
       </c>
@@ -19266,7 +19273,7 @@
         <v>-4.2098618428094503E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>82</v>
       </c>
@@ -19280,7 +19287,7 @@
         <v>5.1037016391415513</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>82</v>
       </c>
@@ -19294,7 +19301,7 @@
         <v>6.0762302840568223</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>82</v>
       </c>
@@ -19308,7 +19315,7 @@
         <v>7.6937348366151053</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>82</v>
       </c>
@@ -19322,7 +19329,7 @@
         <v>0.46538420626150157</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>82</v>
       </c>
@@ -19336,7 +19343,7 @@
         <v>5.0796613190330984</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>82</v>
       </c>
@@ -19350,7 +19357,7 @@
         <v>15.287254626830011</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
         <v>82</v>
       </c>
@@ -19364,7 +19371,7 @@
         <v>9.3448215747377503</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>82</v>
       </c>
@@ -19378,7 +19385,7 @@
         <v>6.3687809677667557</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
         <v>82</v>
       </c>
@@ -19392,7 +19399,7 @@
         <v>5.438447564115477</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>83</v>
       </c>
@@ -19406,7 +19413,7 @@
         <v>-0.86429259846616791</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>83</v>
       </c>
@@ -19420,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
         <v>83</v>
       </c>
@@ -19434,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
         <v>83</v>
       </c>
@@ -19448,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
         <v>83</v>
       </c>
@@ -19462,7 +19469,7 @@
         <v>9.6622107261437016</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
         <v>83</v>
       </c>
@@ -19476,7 +19483,7 @@
         <v>-1.2717775730890426</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
         <v>83</v>
       </c>
@@ -19490,7 +19497,7 @@
         <v>1.3382850577222309</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
         <v>83</v>
       </c>
@@ -19504,7 +19511,7 @@
         <v>4.2905988256441177</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
         <v>83</v>
       </c>
@@ -19518,7 +19525,7 @@
         <v>3.2306326279280242</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
         <v>83</v>
       </c>
@@ -19532,7 +19539,7 @@
         <v>-2.6041010394696711</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
         <v>83</v>
       </c>
@@ -19546,7 +19553,7 @@
         <v>6.2893997423918045E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
         <v>83</v>
       </c>
@@ -19560,7 +19567,7 @@
         <v>0.19380079506492057</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
         <v>83</v>
       </c>
@@ -19574,7 +19581,7 @@
         <v>13.675406935533729</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
         <v>83</v>
       </c>
@@ -19588,7 +19595,7 @@
         <v>1.5043399429543045</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
         <v>83</v>
       </c>
@@ -19602,7 +19609,7 @@
         <v>3.0638889369049047</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
         <v>83</v>
       </c>
@@ -19616,7 +19623,7 @@
         <v>8.0606962578641532</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
         <v>83</v>
       </c>
@@ -19630,7 +19637,7 @@
         <v>12.619406855506954</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
         <v>83</v>
       </c>
@@ -19644,7 +19651,7 @@
         <v>3.001293564799743</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
         <v>83</v>
       </c>
@@ -19658,7 +19665,7 @@
         <v>6.9683232359953866</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
         <v>83</v>
       </c>
@@ -19672,7 +19679,7 @@
         <v>6.1281438640821548</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
         <v>84</v>
       </c>
@@ -19686,7 +19693,7 @@
         <v>-1.1505563655367683</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
         <v>84</v>
       </c>
@@ -19700,7 +19707,7 @@
         <v>6.230283974202842</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
         <v>84</v>
       </c>
@@ -19714,7 +19721,7 @@
         <v>-0.40155144475547316</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
         <v>84</v>
       </c>
@@ -19728,7 +19735,7 @@
         <v>4.4028655747430179</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
         <v>84</v>
       </c>
@@ -19742,7 +19749,7 @@
         <v>9.7214585106401721</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
         <v>84</v>
       </c>
@@ -19756,7 +19763,7 @@
         <v>2.5958242904387419</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
         <v>84</v>
       </c>
@@ -19770,7 +19777,7 @@
         <v>4.8024557189762636</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
         <v>84</v>
       </c>
@@ -19784,7 +19791,7 @@
         <v>9.9618863987170396</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
         <v>84</v>
       </c>
@@ -19798,7 +19805,7 @@
         <v>6.6330728649951416</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
         <v>84</v>
       </c>
@@ -19812,7 +19819,7 @@
         <v>-0.28414737369430088</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
         <v>84</v>
       </c>
@@ -19826,7 +19833,7 @@
         <v>4.6488062763373348</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
         <v>84</v>
       </c>
@@ -19840,7 +19847,7 @@
         <v>5.7378523531814292</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
         <v>84</v>
       </c>
@@ -19854,7 +19861,7 @@
         <v>15.101503293594916</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
         <v>84</v>
       </c>
@@ -19868,7 +19875,7 @@
         <v>7.682005764462958</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="2" t="s">
         <v>84</v>
       </c>
@@ -19882,7 +19889,7 @@
         <v>6.1700671126908917</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="2" t="s">
         <v>84</v>
       </c>
@@ -19896,7 +19903,7 @@
         <v>12.229188329029551</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="2" t="s">
         <v>84</v>
       </c>
@@ -19910,7 +19917,7 @@
         <v>14.954155105895897</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
         <v>84</v>
       </c>
@@ -19924,7 +19931,7 @@
         <v>10.38128982463448</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
         <v>84</v>
       </c>
@@ -19938,7 +19945,7 @@
         <v>7.3615016550090981</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
         <v>84</v>
       </c>
